--- a/Reduced/data_transparams.xlsx
+++ b/Reduced/data_transparams.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="138">
   <si>
     <t>source</t>
   </si>
@@ -403,6 +403,36 @@
   </si>
   <si>
     <t>TABLE_MT_230</t>
+  </si>
+  <si>
+    <t>BELLOTA_230</t>
+  </si>
+  <si>
+    <t>BRIGHTON_230</t>
+  </si>
+  <si>
+    <t>RIO_OSO_230</t>
+  </si>
+  <si>
+    <t>COLGATE_230</t>
+  </si>
+  <si>
+    <t>PALERMO_230</t>
+  </si>
+  <si>
+    <t>GOLDHILL_230</t>
+  </si>
+  <si>
+    <t>RIO_OSO_115</t>
+  </si>
+  <si>
+    <t>SUMMIT_115</t>
+  </si>
+  <si>
+    <t>SUMITSPP_115</t>
+  </si>
+  <si>
+    <t>SUMMIT_20</t>
   </si>
 </sst>
 </file>
@@ -1216,10 +1246,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D175"/>
+  <dimension ref="A1:D191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
+      <selection activeCell="A191" sqref="A191:XFD191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3679,6 +3709,230 @@
         <v>11210</v>
       </c>
     </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>128</v>
+      </c>
+      <c r="B176" t="s">
+        <v>129</v>
+      </c>
+      <c r="C176">
+        <v>2.886E-2</v>
+      </c>
+      <c r="D176">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>128</v>
+      </c>
+      <c r="B177" t="s">
+        <v>117</v>
+      </c>
+      <c r="C177">
+        <v>9.2679999999999998E-2</v>
+      </c>
+      <c r="D177">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>128</v>
+      </c>
+      <c r="B178" t="s">
+        <v>89</v>
+      </c>
+      <c r="C178">
+        <v>2.886E-2</v>
+      </c>
+      <c r="D178">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>129</v>
+      </c>
+      <c r="B179" t="s">
+        <v>130</v>
+      </c>
+      <c r="C179">
+        <v>2.886E-2</v>
+      </c>
+      <c r="D179">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>131</v>
+      </c>
+      <c r="B180" t="s">
+        <v>132</v>
+      </c>
+      <c r="C180">
+        <v>2.886E-2</v>
+      </c>
+      <c r="D180">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>131</v>
+      </c>
+      <c r="B181" t="s">
+        <v>130</v>
+      </c>
+      <c r="C181">
+        <v>2.886E-2</v>
+      </c>
+      <c r="D181">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>133</v>
+      </c>
+      <c r="B182" t="s">
+        <v>130</v>
+      </c>
+      <c r="C182">
+        <v>2.886E-2</v>
+      </c>
+      <c r="D182">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>133</v>
+      </c>
+      <c r="B183" t="s">
+        <v>117</v>
+      </c>
+      <c r="C183">
+        <v>9.2679999999999998E-2</v>
+      </c>
+      <c r="D183">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
+        <v>133</v>
+      </c>
+      <c r="B184" t="s">
+        <v>89</v>
+      </c>
+      <c r="C184">
+        <v>2.886E-2</v>
+      </c>
+      <c r="D184">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
+        <v>132</v>
+      </c>
+      <c r="B185" t="s">
+        <v>127</v>
+      </c>
+      <c r="C185">
+        <v>2.886E-2</v>
+      </c>
+      <c r="D185">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
+        <v>130</v>
+      </c>
+      <c r="B186" t="s">
+        <v>134</v>
+      </c>
+      <c r="C186">
+        <v>2.9899999999999999E-2</v>
+      </c>
+      <c r="D186">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
+        <v>130</v>
+      </c>
+      <c r="B187" t="s">
+        <v>127</v>
+      </c>
+      <c r="C187">
+        <v>2.886E-2</v>
+      </c>
+      <c r="D187">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
+        <v>135</v>
+      </c>
+      <c r="B188" t="s">
+        <v>134</v>
+      </c>
+      <c r="C188">
+        <v>2.886E-2</v>
+      </c>
+      <c r="D188">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
+        <v>135</v>
+      </c>
+      <c r="B189" t="s">
+        <v>136</v>
+      </c>
+      <c r="C189">
+        <v>2.9899999999999999E-2</v>
+      </c>
+      <c r="D189">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
+        <v>135</v>
+      </c>
+      <c r="B190" t="s">
+        <v>137</v>
+      </c>
+      <c r="C190">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D190">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
+        <v>73</v>
+      </c>
+      <c r="B191" t="s">
+        <v>128</v>
+      </c>
+      <c r="C191">
+        <v>2.886E-2</v>
+      </c>
+      <c r="D191">
+        <v>888</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D176">
     <sortCondition ref="A2:A176"/>

--- a/Reduced/data_transparams.xlsx
+++ b/Reduced/data_transparams.xlsx
@@ -14,12 +14,15 @@
   <sheets>
     <sheet name="data_transparams" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data_transparams!$A$1:$D$239</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="175">
   <si>
     <t>source</t>
   </si>
@@ -433,6 +436,117 @@
   </si>
   <si>
     <t>SUMMIT_20</t>
+  </si>
+  <si>
+    <t>BELL_230</t>
+  </si>
+  <si>
+    <t>CA230_230</t>
+  </si>
+  <si>
+    <t>BELL_500</t>
+  </si>
+  <si>
+    <t>GARRISON_500</t>
+  </si>
+  <si>
+    <t>BIG_EDDY_230</t>
+  </si>
+  <si>
+    <t>CELILO_230</t>
+  </si>
+  <si>
+    <t>DALLES21_20</t>
+  </si>
+  <si>
+    <t>BIG_EDDY_500</t>
+  </si>
+  <si>
+    <t>CELILOCA_500</t>
+  </si>
+  <si>
+    <t>WCASCADE_500</t>
+  </si>
+  <si>
+    <t>GARRISON_230</t>
+  </si>
+  <si>
+    <t>CA230TO_230</t>
+  </si>
+  <si>
+    <t>CANADA_500</t>
+  </si>
+  <si>
+    <t>CANAD_G1_20</t>
+  </si>
+  <si>
+    <t>COULEE_500</t>
+  </si>
+  <si>
+    <t>COULEE_20</t>
+  </si>
+  <si>
+    <t>HANFORD_500</t>
+  </si>
+  <si>
+    <t>NORTH_500</t>
+  </si>
+  <si>
+    <t>GRIZZLY_500</t>
+  </si>
+  <si>
+    <t>GRIZZLY1_500</t>
+  </si>
+  <si>
+    <t>GRIZZLY2_500</t>
+  </si>
+  <si>
+    <t>GRIZZLY5_500</t>
+  </si>
+  <si>
+    <t>JOHN_DAY_500</t>
+  </si>
+  <si>
+    <t>GRIZZLY3_500</t>
+  </si>
+  <si>
+    <t>GRIZZLY4_500</t>
+  </si>
+  <si>
+    <t>GRIZZLY6_500</t>
+  </si>
+  <si>
+    <t>GRIZZLY7_500</t>
+  </si>
+  <si>
+    <t>HANFORD_20</t>
+  </si>
+  <si>
+    <t>JOHN_DAY_20</t>
+  </si>
+  <si>
+    <t>MALIN_500</t>
+  </si>
+  <si>
+    <t>MALIN_20</t>
+  </si>
+  <si>
+    <t>MALIN_345</t>
+  </si>
+  <si>
+    <t>MALIN1_500</t>
+  </si>
+  <si>
+    <t>NORTH_G3_20</t>
+  </si>
+  <si>
+    <t>SUMMER_L_500</t>
+  </si>
+  <si>
+    <t>WCASCADE_20</t>
+  </si>
+  <si>
+    <t>WILLAMET_500</t>
   </si>
 </sst>
 </file>
@@ -1246,10 +1360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D191"/>
+  <dimension ref="A1:D239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
-      <selection activeCell="A191" sqref="A191:XFD191"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="A177" sqref="A177:XFD177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1317,13 +1431,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>138</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>139</v>
       </c>
       <c r="C5">
-        <v>5.0000000000000001E-4</v>
+        <v>0.02</v>
       </c>
       <c r="D5">
         <v>99999</v>
@@ -1331,13 +1445,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>140</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>138</v>
       </c>
       <c r="C6">
-        <v>3.3459999999999997E-2</v>
+        <v>0.01</v>
       </c>
       <c r="D6">
         <v>99999</v>
@@ -1345,13 +1459,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>140</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="C7">
-        <v>3.7999999999999999E-2</v>
+        <v>9.6500000000000002E-2</v>
       </c>
       <c r="D7">
         <v>99999</v>
@@ -1359,27 +1473,27 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>128</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>129</v>
       </c>
       <c r="C8">
-        <v>4.6769999999999999E-2</v>
+        <v>2.886E-2</v>
       </c>
       <c r="D8">
-        <v>99999</v>
+        <v>888</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>128</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="C9">
-        <v>3.422E-2</v>
+        <v>9.2679999999999998E-2</v>
       </c>
       <c r="D9">
         <v>99999</v>
@@ -1387,181 +1501,181 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C10">
-        <v>1.2699999999999999E-2</v>
+        <v>2.886E-2</v>
       </c>
       <c r="D10">
-        <v>1120</v>
+        <v>888</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>86</v>
+        <v>142</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
+        <v>138</v>
       </c>
       <c r="C11">
-        <v>1.2699999999999999E-2</v>
+        <v>0.02</v>
       </c>
       <c r="D11">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>86</v>
+        <v>142</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="C12">
-        <v>2.886E-2</v>
+        <v>1.16E-3</v>
       </c>
       <c r="D12">
-        <v>888</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>86</v>
+        <v>142</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="C13">
-        <v>1.2699999999999999E-2</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="D13">
-        <v>1120</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="B14" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="C14">
-        <v>0.16938</v>
+        <v>7.3499999999999998E-3</v>
       </c>
       <c r="D14">
-        <v>838</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="B15" t="s">
-        <v>90</v>
+        <v>146</v>
       </c>
       <c r="C15">
-        <v>0.10101</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="D15">
-        <v>838</v>
+        <v>3450</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="B16" t="s">
-        <v>111</v>
+        <v>147</v>
       </c>
       <c r="C16">
-        <v>2.9899999999999999E-2</v>
+        <v>8.2000000000000007E-3</v>
       </c>
       <c r="D16">
-        <v>888</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="B17" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C17">
-        <v>9.2679999999999998E-2</v>
+        <v>2.886E-2</v>
       </c>
       <c r="D17">
-        <v>99999</v>
+        <v>888</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="B18" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="C18">
-        <v>9.2679999999999998E-2</v>
+        <v>0.02</v>
       </c>
       <c r="D18">
-        <v>747</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="B19" t="s">
-        <v>114</v>
+        <v>151</v>
       </c>
       <c r="C19">
-        <v>0.11380999999999999</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="D19">
-        <v>838</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>110</v>
+        <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>115</v>
+        <v>8</v>
       </c>
       <c r="C20">
-        <v>6.6420000000000007E-2</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="D20">
-        <v>752</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>110</v>
+        <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="C21">
-        <v>0.27403</v>
+        <v>3.3459999999999997E-2</v>
       </c>
       <c r="D21">
-        <v>747</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>112</v>
+        <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="C22">
-        <v>5.0000000000000001E-4</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="D22">
         <v>99999</v>
@@ -1569,13 +1683,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>112</v>
+        <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>117</v>
+        <v>60</v>
       </c>
       <c r="C23">
-        <v>0.13702</v>
+        <v>4.6769999999999999E-2</v>
       </c>
       <c r="D23">
         <v>99999</v>
@@ -1583,13 +1697,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>112</v>
+        <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C24">
-        <v>0.27403</v>
+        <v>3.422E-2</v>
       </c>
       <c r="D24">
         <v>99999</v>
@@ -1597,139 +1711,139 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="C25">
-        <v>9.0500000000000008E-3</v>
+        <v>1.2699999999999999E-2</v>
       </c>
       <c r="D25">
-        <v>3600</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="C26">
-        <v>5.0000000000000001E-4</v>
+        <v>1.2699999999999999E-2</v>
       </c>
       <c r="D26">
-        <v>99999</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27">
-        <v>1.9369999999999998E-2</v>
-      </c>
-      <c r="D27">
-        <v>99999</v>
+      <c r="A27" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2.886E-2</v>
+      </c>
+      <c r="D27" s="1">
+        <v>88800</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="B28" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="C28">
-        <v>2.087E-2</v>
+        <v>1.2699999999999999E-2</v>
       </c>
       <c r="D28">
-        <v>99999</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>146</v>
       </c>
       <c r="B29" t="s">
-        <v>19</v>
+        <v>143</v>
       </c>
       <c r="C29">
-        <v>2.58E-2</v>
+        <v>2.2100000000000002E-3</v>
       </c>
       <c r="D29">
-        <v>2320</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>18</v>
+        <v>131</v>
       </c>
       <c r="B30" t="s">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c r="C30">
-        <v>7.034E-2</v>
+        <v>2.886E-2</v>
       </c>
       <c r="D30">
-        <v>1160</v>
+        <v>888</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="B31" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="C31">
-        <v>1.2699999999999999E-2</v>
+        <v>2.886E-2</v>
       </c>
       <c r="D31">
-        <v>1120</v>
+        <v>888</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="B32" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="C32">
-        <v>5.0000000000000001E-4</v>
+        <v>0.16938</v>
       </c>
       <c r="D32">
-        <v>99999</v>
+        <v>838</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="B33" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C33">
-        <v>2.886E-2</v>
+        <v>0.10101</v>
       </c>
       <c r="D33">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="B34" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="C34">
-        <v>2.886E-2</v>
+        <v>2.9899999999999999E-2</v>
       </c>
       <c r="D34">
         <v>888</v>
@@ -1737,83 +1851,83 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="B35" t="s">
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="C35">
-        <v>2.886E-2</v>
+        <v>9.2679999999999998E-2</v>
       </c>
       <c r="D35">
-        <v>888</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="B36" t="s">
-        <v>21</v>
+        <v>113</v>
       </c>
       <c r="C36">
-        <v>1.7399999999999999E-2</v>
+        <v>9.2679999999999998E-2</v>
       </c>
       <c r="D36">
-        <v>840</v>
+        <v>747</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="B37" t="s">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="C37">
-        <v>1.6E-2</v>
+        <v>0.11380999999999999</v>
       </c>
       <c r="D37">
-        <v>2450</v>
+        <v>838</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="B38" t="s">
-        <v>69</v>
+        <v>115</v>
       </c>
       <c r="C38">
-        <v>1.985E-2</v>
+        <v>6.6420000000000007E-2</v>
       </c>
       <c r="D38">
-        <v>2450</v>
+        <v>752</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="B39" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="C39">
-        <v>7.2300000000000003E-3</v>
+        <v>0.27403</v>
       </c>
       <c r="D39">
-        <v>99999</v>
+        <v>747</v>
       </c>
     </row>
     <row r="40" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="B40" t="s">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="C40">
-        <v>5.3600000000000002E-3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="D40">
         <v>99999</v>
@@ -1821,83 +1935,83 @@
     </row>
     <row r="41" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B41" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="C41">
-        <v>0.2046</v>
+        <v>0.13702</v>
       </c>
       <c r="D41">
-        <v>747</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="B42" t="s">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="C42">
-        <v>2.886E-2</v>
+        <v>0.27403</v>
       </c>
       <c r="D42">
-        <v>888</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="B43" t="s">
-        <v>71</v>
+        <v>140</v>
       </c>
       <c r="C43">
-        <v>2.886E-2</v>
+        <v>0.02</v>
       </c>
       <c r="D43">
-        <v>888</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="44" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="B44" t="s">
-        <v>72</v>
+        <v>153</v>
       </c>
       <c r="C44">
-        <v>2.886E-2</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="D44">
-        <v>888</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="45" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="B45" t="s">
-        <v>73</v>
+        <v>154</v>
       </c>
       <c r="C45">
-        <v>2.886E-2</v>
+        <v>2.069E-2</v>
       </c>
       <c r="D45">
-        <v>888</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>24</v>
+        <v>152</v>
       </c>
       <c r="B46" t="s">
-        <v>25</v>
+        <v>155</v>
       </c>
       <c r="C46">
-        <v>5.0000000000000001E-4</v>
+        <v>8.2000000000000007E-3</v>
       </c>
       <c r="D46">
         <v>99999</v>
@@ -1905,27 +2019,27 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C47">
-        <v>3.669E-2</v>
+        <v>9.0500000000000008E-3</v>
       </c>
       <c r="D47">
-        <v>99999</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B48" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="C48">
-        <v>3.074E-2</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="D48">
         <v>99999</v>
@@ -1933,13 +2047,13 @@
     </row>
     <row r="49" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B49" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="C49">
-        <v>4.2959999999999998E-2</v>
+        <v>1.9369999999999998E-2</v>
       </c>
       <c r="D49">
         <v>99999</v>
@@ -1947,13 +2061,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="B50" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="C50">
-        <v>5.0000000000000001E-4</v>
+        <v>2.087E-2</v>
       </c>
       <c r="D50">
         <v>99999</v>
@@ -1961,122 +2075,122 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="B51" t="s">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="C51">
-        <v>2.886E-2</v>
+        <v>2.58E-2</v>
       </c>
       <c r="D51">
-        <v>250</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="B52" t="s">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="C52">
-        <v>5.0000000000000001E-4</v>
+        <v>7.034E-2</v>
       </c>
       <c r="D52">
-        <v>99999</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="B53" t="s">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="C53">
-        <v>5.0000000000000001E-4</v>
+        <v>1.2699999999999999E-2</v>
       </c>
       <c r="D53">
-        <v>99999</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="B54" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="C54">
-        <v>5.0000000000000001E-3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="D54">
         <v>99999</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>75</v>
-      </c>
-      <c r="B55" t="s">
-        <v>76</v>
-      </c>
-      <c r="C55">
-        <v>1.2699999999999999E-2</v>
-      </c>
-      <c r="D55">
-        <v>1120</v>
+    <row r="55" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C55" s="1">
+        <v>2.886E-2</v>
+      </c>
+      <c r="D55" s="1">
+        <v>8880</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
+      <c r="A56" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B56" t="s">
-        <v>90</v>
-      </c>
-      <c r="C56">
+      <c r="C56" s="1">
         <v>2.886E-2</v>
       </c>
-      <c r="D56">
-        <v>888</v>
+      <c r="D56" s="1">
+        <v>8880</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>30</v>
+        <v>141</v>
       </c>
       <c r="B57" t="s">
-        <v>19</v>
+        <v>148</v>
       </c>
       <c r="C57">
-        <v>1.2699999999999999E-2</v>
+        <v>1.8100000000000002E-2</v>
       </c>
       <c r="D57">
-        <v>2320</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="B58" t="s">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="C58">
-        <v>0.16106000000000001</v>
+        <v>2.886E-2</v>
       </c>
       <c r="D58">
-        <v>838</v>
+        <v>888</v>
       </c>
     </row>
     <row r="59" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="B59" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="C59">
         <v>1.7399999999999999E-2</v>
@@ -2087,13 +2201,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="B60" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="C60">
-        <v>1.2970000000000001E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="D60">
         <v>2450</v>
@@ -2101,13 +2215,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
+        <v>16</v>
+      </c>
+      <c r="B61" t="s">
         <v>69</v>
       </c>
-      <c r="B61" t="s">
-        <v>97</v>
-      </c>
       <c r="C61">
-        <v>3.644E-2</v>
+        <v>1.985E-2</v>
       </c>
       <c r="D61">
         <v>2450</v>
@@ -2115,55 +2229,55 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>121</v>
+        <v>62</v>
       </c>
       <c r="C62">
-        <v>1.3333332999999999E-2</v>
+        <v>7.2300000000000003E-3</v>
       </c>
       <c r="D62">
-        <v>1800</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="C63">
-        <v>7.4999999999999997E-3</v>
+        <v>5.3600000000000002E-3</v>
       </c>
       <c r="D63">
-        <v>3600</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="C64">
-        <v>1.2800000000000001E-2</v>
+        <v>0.2046</v>
       </c>
       <c r="D64">
-        <v>3600</v>
+        <v>747</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>31</v>
+        <v>133</v>
       </c>
       <c r="B65" t="s">
-        <v>6</v>
+        <v>130</v>
       </c>
       <c r="C65">
-        <v>4.1000000000000003E-3</v>
+        <v>2.886E-2</v>
       </c>
       <c r="D65">
         <v>99999</v>
@@ -2171,24 +2285,24 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>31</v>
+        <v>133</v>
       </c>
       <c r="B66" t="s">
-        <v>33</v>
+        <v>117</v>
       </c>
       <c r="C66">
-        <v>1.125E-2</v>
+        <v>9.2679999999999998E-2</v>
       </c>
       <c r="D66">
-        <v>3600</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="67" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>98</v>
+        <v>133</v>
       </c>
       <c r="B67" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C67">
         <v>2.886E-2</v>
@@ -2199,223 +2313,223 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="C68">
-        <v>1.2699999999999999E-2</v>
+        <v>2.886E-2</v>
       </c>
       <c r="D68">
-        <v>1120</v>
+        <v>888</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="C69">
-        <v>2.9899999999999999E-2</v>
+        <v>2.886E-2</v>
       </c>
       <c r="D69">
-        <v>250</v>
+        <v>888</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="C70">
-        <v>1.2699999999999999E-2</v>
+        <v>2.886E-2</v>
       </c>
       <c r="D70">
-        <v>1120</v>
+        <v>888</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C71" s="1">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>73</v>
+      </c>
+      <c r="C71">
         <v>2.886E-2</v>
       </c>
-      <c r="D71" s="1">
-        <v>8880</v>
+      <c r="D71">
+        <v>888</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>79</v>
+        <v>156</v>
       </c>
       <c r="B72" t="s">
-        <v>80</v>
+        <v>157</v>
       </c>
       <c r="C72">
-        <v>5.0000000000000001E-4</v>
+        <v>7.3699999999999998E-3</v>
       </c>
       <c r="D72">
-        <v>99999</v>
+        <v>3450</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A73" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C73" s="1">
-        <v>2.886E-2</v>
-      </c>
-      <c r="D73" s="1">
-        <v>8880</v>
+      <c r="A73" t="s">
+        <v>156</v>
+      </c>
+      <c r="B73" t="s">
+        <v>158</v>
+      </c>
+      <c r="C73">
+        <v>1.2659999999999999E-2</v>
+      </c>
+      <c r="D73">
+        <v>99999</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>19</v>
+        <v>156</v>
       </c>
       <c r="B74" t="s">
-        <v>35</v>
+        <v>159</v>
       </c>
       <c r="C74">
-        <v>5.0000000000000001E-4</v>
+        <v>1.2659999999999999E-2</v>
       </c>
       <c r="D74">
         <v>99999</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
-        <v>19</v>
-      </c>
-      <c r="B75" t="s">
-        <v>36</v>
-      </c>
-      <c r="C75">
-        <v>5.3990000000000003E-2</v>
-      </c>
-      <c r="D75">
-        <v>99999</v>
+      <c r="A75" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C75" s="1">
+        <v>2.409E-2</v>
+      </c>
+      <c r="D75" s="1">
+        <v>30200</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>19</v>
+        <v>158</v>
       </c>
       <c r="B76" t="s">
-        <v>37</v>
+        <v>161</v>
       </c>
       <c r="C76">
-        <v>2.886E-2</v>
+        <v>1.65E-3</v>
       </c>
       <c r="D76">
-        <v>888</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>19</v>
+        <v>161</v>
       </c>
       <c r="B77" t="s">
-        <v>38</v>
+        <v>162</v>
       </c>
       <c r="C77">
-        <v>3.95E-2</v>
+        <v>1.2658228000000001E-2</v>
       </c>
       <c r="D77">
-        <v>2320</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>81</v>
+        <v>159</v>
       </c>
       <c r="B78" t="s">
-        <v>82</v>
+        <v>163</v>
       </c>
       <c r="C78">
-        <v>5.0000000000000001E-4</v>
+        <v>1.65E-3</v>
       </c>
       <c r="D78">
-        <v>99999</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>81</v>
+        <v>163</v>
       </c>
       <c r="B79" t="s">
-        <v>76</v>
+        <v>164</v>
       </c>
       <c r="C79">
-        <v>1.2699999999999999E-2</v>
+        <v>1.2658228000000001E-2</v>
       </c>
       <c r="D79">
-        <v>1120</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>81</v>
+        <v>154</v>
       </c>
       <c r="B80" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
       <c r="C80">
-        <v>2.886E-2</v>
+        <v>2.2579999999999999E-2</v>
       </c>
       <c r="D80">
-        <v>888</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>84</v>
+        <v>154</v>
       </c>
       <c r="B81" t="s">
-        <v>81</v>
+        <v>165</v>
       </c>
       <c r="C81">
-        <v>1.7399999999999999E-2</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="D81">
-        <v>840</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>84</v>
+        <v>154</v>
       </c>
       <c r="B82" t="s">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c r="C82">
-        <v>1.2970000000000001E-2</v>
+        <v>8.2000000000000007E-3</v>
       </c>
       <c r="D82">
-        <v>2450</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>39</v>
+        <v>154</v>
       </c>
       <c r="B83" t="s">
-        <v>40</v>
+        <v>147</v>
       </c>
       <c r="C83">
-        <v>5.0000000000000001E-4</v>
+        <v>8.2000000000000007E-3</v>
       </c>
       <c r="D83">
         <v>99999</v>
@@ -2423,349 +2537,349 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B84" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C84">
-        <v>2.886E-2</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="D84">
-        <v>888</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B85" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C85">
-        <v>0.01</v>
+        <v>3.669E-2</v>
       </c>
       <c r="D85">
-        <v>2450</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B86" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C86">
-        <v>1.47E-2</v>
+        <v>3.074E-2</v>
       </c>
       <c r="D86">
-        <v>1560</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B87" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="C87">
-        <v>1.1900000000000001E-2</v>
+        <v>4.2959999999999998E-2</v>
       </c>
       <c r="D87">
-        <v>1120</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="B88" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="C88">
-        <v>9.4339620000000006E-3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="D88">
-        <v>2134</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>17</v>
+        <v>119</v>
       </c>
       <c r="B89" t="s">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="C89">
-        <v>9.4339620000000006E-3</v>
+        <v>2.886E-2</v>
       </c>
       <c r="D89">
-        <v>2134</v>
+        <v>250</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>17</v>
+        <v>119</v>
       </c>
       <c r="B90" t="s">
-        <v>43</v>
+        <v>120</v>
       </c>
       <c r="C90">
-        <v>9.4339620000000006E-3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="D90">
-        <v>2134</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B91" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C91">
-        <v>2.6589999999999999E-2</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="D91">
-        <v>3600</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B92" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C92">
-        <v>2.6620000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D92">
-        <v>3600</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="B93" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="C93">
-        <v>2.5170000000000001E-2</v>
+        <v>1.2699999999999999E-2</v>
       </c>
       <c r="D93">
-        <v>3600</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A94" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C94" s="1">
-        <v>2.886E-2</v>
-      </c>
-      <c r="D94" s="1">
-        <v>8880</v>
+      <c r="A94" t="s">
+        <v>160</v>
+      </c>
+      <c r="B94" t="s">
+        <v>145</v>
+      </c>
+      <c r="C94">
+        <v>4.4600000000000004E-3</v>
+      </c>
+      <c r="D94">
+        <v>2175</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A95" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C95" s="1">
-        <v>2.886E-2</v>
-      </c>
-      <c r="D95" s="1">
-        <v>8880</v>
+      <c r="A95" t="s">
+        <v>160</v>
+      </c>
+      <c r="B95" t="s">
+        <v>141</v>
+      </c>
+      <c r="C95">
+        <v>3.304E-2</v>
+      </c>
+      <c r="D95">
+        <v>99999</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="B96" t="s">
-        <v>29</v>
+        <v>154</v>
       </c>
       <c r="C96">
-        <v>2.5239999999999999E-2</v>
+        <v>0.02</v>
       </c>
       <c r="D96">
-        <v>1800</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="B97" t="s">
-        <v>47</v>
+        <v>166</v>
       </c>
       <c r="C97">
-        <v>5.0000000000000001E-3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="D97">
-        <v>99999</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="98" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C98" s="1">
+      <c r="A98" t="s">
+        <v>160</v>
+      </c>
+      <c r="B98" t="s">
+        <v>147</v>
+      </c>
+      <c r="C98">
+        <v>8.2000000000000007E-3</v>
+      </c>
+      <c r="D98">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>96</v>
+      </c>
+      <c r="B99" t="s">
+        <v>90</v>
+      </c>
+      <c r="C99">
         <v>2.886E-2</v>
       </c>
-      <c r="D98" s="1">
-        <v>8880</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C99" s="1">
-        <v>2.886E-2</v>
-      </c>
-      <c r="D99" s="1">
-        <v>8880</v>
+      <c r="D99">
+        <v>888</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B100" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="C100">
-        <v>5.0000000000000001E-3</v>
+        <v>1.2699999999999999E-2</v>
       </c>
       <c r="D100">
-        <v>99999</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c r="B101" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="C101">
-        <v>4.5700000000000003E-3</v>
+        <v>0.16106000000000001</v>
       </c>
       <c r="D101">
-        <v>3600</v>
+        <v>838</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="B102" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="C102">
-        <v>5.0000000000000001E-4</v>
+        <v>1.7399999999999999E-2</v>
       </c>
       <c r="D102">
-        <v>99999</v>
+        <v>840</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A103" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C103" s="1">
-        <v>2.886E-2</v>
-      </c>
-      <c r="D103" s="1">
-        <v>8880</v>
+      <c r="A103" t="s">
+        <v>69</v>
+      </c>
+      <c r="B103" t="s">
+        <v>78</v>
+      </c>
+      <c r="C103">
+        <v>1.2970000000000001E-2</v>
+      </c>
+      <c r="D103">
+        <v>2450</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="B104" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C104">
-        <v>2.886E-2</v>
+        <v>3.644E-2</v>
       </c>
       <c r="D104">
-        <v>99999</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="B105" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="C105">
-        <v>1.2699999999999999E-2</v>
+        <v>1.3333332999999999E-2</v>
       </c>
       <c r="D105">
-        <v>1120</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="B106" t="s">
-        <v>102</v>
+        <v>32</v>
       </c>
       <c r="C106">
-        <v>1.2699999999999999E-2</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="D106">
-        <v>99999</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="B107" t="s">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="C107">
-        <v>2.886E-2</v>
+        <v>1.2800000000000001E-2</v>
       </c>
       <c r="D107">
-        <v>99999</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B108" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C108">
-        <v>5.0000000000000001E-4</v>
+        <v>4.1000000000000003E-3</v>
       </c>
       <c r="D108">
         <v>99999</v>
@@ -2773,97 +2887,97 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="B109" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="C109">
-        <v>5.0000000000000001E-4</v>
+        <v>1.125E-2</v>
       </c>
       <c r="D109">
-        <v>99999</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>78</v>
+        <v>167</v>
       </c>
       <c r="B110" t="s">
-        <v>83</v>
+        <v>162</v>
       </c>
       <c r="C110">
-        <v>1.7399999999999999E-2</v>
+        <v>1.502E-2</v>
       </c>
       <c r="D110">
-        <v>840</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>88</v>
+        <v>167</v>
       </c>
       <c r="B111" t="s">
-        <v>81</v>
+        <v>164</v>
       </c>
       <c r="C111">
-        <v>2.886E-2</v>
+        <v>1.413E-2</v>
       </c>
       <c r="D111">
-        <v>99999</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>88</v>
+        <v>167</v>
       </c>
       <c r="B112" t="s">
-        <v>101</v>
+        <v>168</v>
       </c>
       <c r="C112">
-        <v>1.2699999999999999E-2</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="D112">
-        <v>1120</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>88</v>
+        <v>167</v>
       </c>
       <c r="B113" t="s">
-        <v>103</v>
+        <v>169</v>
       </c>
       <c r="C113">
-        <v>1.2699999999999999E-2</v>
+        <v>7.1999999999999998E-3</v>
       </c>
       <c r="D113">
-        <v>1120</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>88</v>
+        <v>167</v>
       </c>
       <c r="B114" t="s">
-        <v>89</v>
+        <v>170</v>
       </c>
       <c r="C114">
-        <v>2.886E-2</v>
+        <v>1.3820000000000001E-2</v>
       </c>
       <c r="D114">
-        <v>888</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
+        <v>167</v>
+      </c>
+      <c r="B115" t="s">
         <v>122</v>
       </c>
-      <c r="B115" t="s">
-        <v>112</v>
-      </c>
       <c r="C115">
-        <v>1.7399999999999999E-2</v>
+        <v>1.2930000000000001E-2</v>
       </c>
       <c r="D115">
         <v>99999</v>
@@ -2871,108 +2985,108 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="B116" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="C116">
-        <v>1.11E-2</v>
+        <v>2.886E-2</v>
       </c>
       <c r="D116">
-        <v>99999</v>
+        <v>888</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="B117" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="C117">
-        <v>5.0000000000000001E-4</v>
+        <v>1.2699999999999999E-2</v>
       </c>
       <c r="D117">
-        <v>99999</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="B118" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="C118">
-        <v>4.3400000000000001E-3</v>
+        <v>2.9899999999999999E-2</v>
       </c>
       <c r="D118">
-        <v>99999</v>
+        <v>250</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="B119" t="s">
+        <v>100</v>
+      </c>
+      <c r="C119">
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="D119">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A120" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C119">
+      <c r="C120" s="1">
         <v>2.886E-2</v>
       </c>
-      <c r="D119">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A120" t="s">
-        <v>72</v>
-      </c>
-      <c r="B120" t="s">
-        <v>77</v>
-      </c>
-      <c r="C120">
-        <v>2.886E-2</v>
-      </c>
-      <c r="D120">
-        <v>888</v>
+      <c r="D120" s="1">
+        <v>8880</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
+        <v>79</v>
+      </c>
+      <c r="B121" t="s">
+        <v>80</v>
+      </c>
+      <c r="C121">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D121">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A122" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B122" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B121" t="s">
-        <v>83</v>
-      </c>
-      <c r="C121">
+      <c r="C122" s="1">
         <v>2.886E-2</v>
       </c>
-      <c r="D121">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A122" t="s">
-        <v>20</v>
-      </c>
-      <c r="B122" t="s">
-        <v>38</v>
-      </c>
-      <c r="C122">
-        <v>3.3989999999999999E-2</v>
-      </c>
-      <c r="D122">
-        <v>2320</v>
+      <c r="D122" s="1">
+        <v>8880</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="B123" t="s">
-        <v>104</v>
+        <v>35</v>
       </c>
       <c r="C123">
         <v>5.0000000000000001E-4</v>
@@ -2983,24 +3097,24 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="B124" t="s">
-        <v>102</v>
+        <v>36</v>
       </c>
       <c r="C124">
-        <v>1.2699999999999999E-2</v>
+        <v>5.3990000000000003E-2</v>
       </c>
       <c r="D124">
-        <v>1120</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="B125" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="C125">
         <v>2.886E-2</v>
@@ -3011,97 +3125,97 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="B126" t="s">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="C126">
-        <v>5.0000000000000001E-4</v>
+        <v>3.95E-2</v>
       </c>
       <c r="D126">
-        <v>99999</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="B127" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C127">
-        <v>2.886E-2</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="D127">
-        <v>888</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="B128" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="C128">
-        <v>5.0000000000000001E-4</v>
+        <v>1.2699999999999999E-2</v>
       </c>
       <c r="D128">
-        <v>99999</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="B129" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="C129">
-        <v>1.583E-2</v>
+        <v>2.886E-2</v>
       </c>
       <c r="D129">
-        <v>99999</v>
+        <v>888</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="B130" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="C130">
-        <v>9.7099999999999999E-3</v>
+        <v>1.7399999999999999E-2</v>
       </c>
       <c r="D130">
-        <v>99999</v>
+        <v>840</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="B131" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="C131">
-        <v>3.9300000000000003E-3</v>
+        <v>1.2970000000000001E-2</v>
       </c>
       <c r="D131">
-        <v>99999</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="B132" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C132">
-        <v>1.116E-2</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="D132">
         <v>99999</v>
@@ -3109,161 +3223,161 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="B133" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C133">
-        <v>1.3860000000000001E-2</v>
+        <v>2.886E-2</v>
       </c>
       <c r="D133">
-        <v>99999</v>
+        <v>888</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B134" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C134">
-        <v>1.8839999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="D134">
-        <v>99999</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B135" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C135">
-        <v>3.6600000000000001E-3</v>
+        <v>1.47E-2</v>
       </c>
       <c r="D135">
-        <v>99999</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B136" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="C136">
-        <v>5.8599999999999998E-3</v>
+        <v>1.1900000000000001E-2</v>
       </c>
       <c r="D136">
-        <v>99999</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="B137" t="s">
-        <v>123</v>
+        <v>41</v>
       </c>
       <c r="C137">
-        <v>5.0000000000000001E-4</v>
+        <v>9.4339620000000006E-3</v>
       </c>
       <c r="D137">
-        <v>99999</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="B138" t="s">
-        <v>118</v>
+        <v>42</v>
       </c>
       <c r="C138">
-        <v>0.13702</v>
+        <v>9.4339620000000006E-3</v>
       </c>
       <c r="D138">
-        <v>99999</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>115</v>
+        <v>17</v>
       </c>
       <c r="B139" t="s">
-        <v>124</v>
+        <v>43</v>
       </c>
       <c r="C139">
-        <v>5.0000000000000001E-4</v>
+        <v>9.4339620000000006E-3</v>
       </c>
       <c r="D139">
-        <v>99999</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>125</v>
+        <v>41</v>
       </c>
       <c r="B140" t="s">
-        <v>115</v>
+        <v>44</v>
       </c>
       <c r="C140">
-        <v>1.7399999999999999E-2</v>
+        <v>2.6589999999999999E-2</v>
       </c>
       <c r="D140">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="B141" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="C141">
-        <v>1.2699999999999999E-2</v>
+        <v>2.6620000000000001E-2</v>
       </c>
       <c r="D141">
-        <v>1120</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="B142" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="C142">
-        <v>1.2699999999999999E-2</v>
+        <v>2.5170000000000001E-2</v>
       </c>
       <c r="D142">
-        <v>1120</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A143" t="s">
-        <v>100</v>
-      </c>
-      <c r="B143" t="s">
-        <v>106</v>
-      </c>
-      <c r="C143">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="D143">
-        <v>99999</v>
+      <c r="A143" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C143" s="1">
+        <v>2.886E-2</v>
+      </c>
+      <c r="D143" s="1">
+        <v>8880</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>49</v>
@@ -3277,69 +3391,69 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="B145" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C145">
-        <v>5.0000000000000001E-3</v>
+        <v>2.5239999999999999E-2</v>
       </c>
       <c r="D145">
-        <v>99999</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>102</v>
+        <v>50</v>
       </c>
       <c r="B146" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="C146">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D146">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A147" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C147" s="1">
         <v>2.886E-2</v>
       </c>
-      <c r="D146">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A147" t="s">
-        <v>102</v>
-      </c>
-      <c r="B147" t="s">
-        <v>96</v>
-      </c>
-      <c r="C147">
+      <c r="D147" s="1">
+        <v>8880</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A148" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C148" s="1">
         <v>2.886E-2</v>
       </c>
-      <c r="D147">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A148" t="s">
-        <v>49</v>
-      </c>
-      <c r="B148" t="s">
-        <v>56</v>
-      </c>
-      <c r="C148">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="D148">
-        <v>99999</v>
+      <c r="D148" s="1">
+        <v>8880</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="B149" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="C149">
-        <v>1.491E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D149">
         <v>99999</v>
@@ -3347,55 +3461,55 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="B150" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="C150">
-        <v>7.9049999999999995E-2</v>
+        <v>4.5700000000000003E-3</v>
       </c>
       <c r="D150">
-        <v>99999</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="B151" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="C151">
-        <v>1.491E-2</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="D151">
         <v>99999</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A152" t="s">
-        <v>67</v>
-      </c>
-      <c r="B152" t="s">
-        <v>58</v>
-      </c>
-      <c r="C152">
-        <v>7.9049999999999995E-2</v>
-      </c>
-      <c r="D152">
-        <v>99999</v>
+      <c r="A152" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C152" s="1">
+        <v>2.886E-2</v>
+      </c>
+      <c r="D152" s="1">
+        <v>8880</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="B153" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="C153">
-        <v>1.34E-2</v>
+        <v>2.886E-2</v>
       </c>
       <c r="D153">
         <v>99999</v>
@@ -3403,27 +3517,27 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="B154" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="C154">
-        <v>1.025E-2</v>
+        <v>1.2699999999999999E-2</v>
       </c>
       <c r="D154">
-        <v>99999</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="B155" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="C155">
-        <v>1.244E-2</v>
+        <v>1.2699999999999999E-2</v>
       </c>
       <c r="D155">
         <v>99999</v>
@@ -3431,13 +3545,13 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="B156" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="C156">
-        <v>9.7900000000000001E-3</v>
+        <v>2.886E-2</v>
       </c>
       <c r="D156">
         <v>99999</v>
@@ -3445,13 +3559,13 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="B157" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C157">
-        <v>1.3860000000000001E-2</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="D157">
         <v>99999</v>
@@ -3459,13 +3573,13 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="B158" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="C158">
-        <v>1.189E-2</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="D158">
         <v>99999</v>
@@ -3473,83 +3587,83 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="B159" t="s">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="C159">
-        <v>2.64E-2</v>
+        <v>1.7399999999999999E-2</v>
       </c>
       <c r="D159">
-        <v>3070</v>
+        <v>840</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="B160" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="C160">
-        <v>1.187E-2</v>
+        <v>2.886E-2</v>
       </c>
       <c r="D160">
-        <v>3070</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="B161" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="C161">
-        <v>1.15E-3</v>
+        <v>1.2699999999999999E-2</v>
       </c>
       <c r="D161">
-        <v>99999</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="B162" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="C162">
-        <v>3.46E-3</v>
+        <v>1.2699999999999999E-2</v>
       </c>
       <c r="D162">
-        <v>99999</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="B163" t="s">
-        <v>127</v>
+        <v>89</v>
       </c>
       <c r="C163">
-        <v>1.7399999999999999E-2</v>
+        <v>2.886E-2</v>
       </c>
       <c r="D163">
-        <v>840</v>
+        <v>888</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>89</v>
+        <v>155</v>
       </c>
       <c r="B164" t="s">
-        <v>107</v>
+        <v>150</v>
       </c>
       <c r="C164">
-        <v>5.0000000000000001E-4</v>
+        <v>2.3900000000000001E-2</v>
       </c>
       <c r="D164">
         <v>99999</v>
@@ -3557,13 +3671,13 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>89</v>
+        <v>155</v>
       </c>
       <c r="B165" t="s">
-        <v>118</v>
+        <v>171</v>
       </c>
       <c r="C165">
-        <v>9.2679999999999998E-2</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="D165">
         <v>99999</v>
@@ -3571,13 +3685,13 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>97</v>
+        <v>155</v>
       </c>
       <c r="B166" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="C166">
-        <v>1.035E-2</v>
+        <v>2.4080000000000001E-2</v>
       </c>
       <c r="D166">
         <v>99999</v>
@@ -3585,55 +3699,55 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="B167" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="C167">
         <v>1.7399999999999999E-2</v>
       </c>
       <c r="D167">
-        <v>840</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="B168" t="s">
         <v>121</v>
       </c>
       <c r="C168">
-        <v>5.7189999999999998E-2</v>
+        <v>1.11E-2</v>
       </c>
       <c r="D168">
-        <v>2450</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="B169" t="s">
-        <v>108</v>
+        <v>53</v>
       </c>
       <c r="C169">
-        <v>1.0989011E-2</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="D169">
-        <v>2450</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="B170" t="s">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="C170">
-        <v>1.7399999999999999E-2</v>
+        <v>4.3400000000000001E-3</v>
       </c>
       <c r="D170">
         <v>99999</v>
@@ -3641,105 +3755,105 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="B171" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C171">
-        <v>1.2290000000000001E-2</v>
+        <v>2.886E-2</v>
       </c>
       <c r="D171">
-        <v>2667</v>
+        <v>888</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="B172" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="C172">
-        <v>1.2500000000000001E-2</v>
+        <v>2.886E-2</v>
       </c>
       <c r="D172">
-        <v>1120</v>
+        <v>888</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="B173" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="C173">
-        <v>9.2999999999999992E-3</v>
+        <v>2.886E-2</v>
       </c>
       <c r="D173">
-        <v>3600</v>
+        <v>888</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="B174" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="C174">
-        <v>2.3380000000000001E-2</v>
+        <v>2.886E-2</v>
       </c>
       <c r="D174">
-        <v>99999</v>
+        <v>888</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A175" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B175" s="1" t="s">
+      <c r="A175" t="s">
+        <v>20</v>
+      </c>
+      <c r="B175" t="s">
         <v>38</v>
       </c>
-      <c r="C175" s="1">
-        <v>1.149E-2</v>
-      </c>
-      <c r="D175" s="1">
-        <v>11210</v>
+      <c r="C175">
+        <v>3.3989999999999999E-2</v>
+      </c>
+      <c r="D175">
+        <v>2320</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="B176" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="C176">
-        <v>2.886E-2</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="D176">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A177" t="s">
-        <v>128</v>
-      </c>
-      <c r="B177" t="s">
-        <v>117</v>
-      </c>
-      <c r="C177">
-        <v>9.2679999999999998E-2</v>
-      </c>
-      <c r="D177">
-        <v>99999</v>
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A177" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C177" s="1">
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="D177" s="1">
+        <v>11210</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="B178" t="s">
         <v>89</v>
@@ -3753,55 +3867,55 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="B179" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="C179">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D179">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A180" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C180" s="1">
         <v>2.886E-2</v>
       </c>
-      <c r="D179">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A180" t="s">
-        <v>131</v>
-      </c>
-      <c r="B180" t="s">
-        <v>132</v>
-      </c>
-      <c r="C180">
-        <v>2.886E-2</v>
-      </c>
-      <c r="D180">
-        <v>888</v>
+      <c r="D180" s="1">
+        <v>8880</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="B181" t="s">
-        <v>130</v>
+        <v>54</v>
       </c>
       <c r="C181">
-        <v>2.886E-2</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="D181">
-        <v>888</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="B182" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="C182">
-        <v>2.886E-2</v>
+        <v>1.583E-2</v>
       </c>
       <c r="D182">
         <v>99999</v>
@@ -3809,13 +3923,13 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="B183" t="s">
-        <v>117</v>
+        <v>60</v>
       </c>
       <c r="C183">
-        <v>9.2679999999999998E-2</v>
+        <v>9.7099999999999999E-3</v>
       </c>
       <c r="D183">
         <v>99999</v>
@@ -3823,41 +3937,41 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="B184" t="s">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="C184">
-        <v>2.886E-2</v>
+        <v>3.9300000000000003E-3</v>
       </c>
       <c r="D184">
-        <v>888</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>132</v>
+        <v>10</v>
       </c>
       <c r="B185" t="s">
-        <v>127</v>
+        <v>55</v>
       </c>
       <c r="C185">
-        <v>2.886E-2</v>
+        <v>1.116E-2</v>
       </c>
       <c r="D185">
-        <v>888</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>130</v>
+        <v>5</v>
       </c>
       <c r="B186" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="C186">
-        <v>2.9899999999999999E-2</v>
+        <v>1.3860000000000001E-2</v>
       </c>
       <c r="D186">
         <v>99999</v>
@@ -3865,27 +3979,27 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>130</v>
+        <v>5</v>
       </c>
       <c r="B187" t="s">
-        <v>127</v>
+        <v>6</v>
       </c>
       <c r="C187">
-        <v>2.886E-2</v>
+        <v>1.8839999999999999E-2</v>
       </c>
       <c r="D187">
-        <v>888</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B188" t="s">
         <v>134</v>
       </c>
       <c r="C188">
-        <v>2.886E-2</v>
+        <v>2.9899999999999999E-2</v>
       </c>
       <c r="D188">
         <v>99999</v>
@@ -3893,27 +4007,27 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B189" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C189">
-        <v>2.9899999999999999E-2</v>
+        <v>2.886E-2</v>
       </c>
       <c r="D189">
-        <v>99999</v>
+        <v>888</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>135</v>
+        <v>26</v>
       </c>
       <c r="B190" t="s">
-        <v>137</v>
+        <v>64</v>
       </c>
       <c r="C190">
-        <v>5.0000000000000001E-4</v>
+        <v>3.6600000000000001E-3</v>
       </c>
       <c r="D190">
         <v>99999</v>
@@ -3921,22 +4035,695 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
+        <v>26</v>
+      </c>
+      <c r="B191" t="s">
+        <v>63</v>
+      </c>
+      <c r="C191">
+        <v>5.8599999999999998E-3</v>
+      </c>
+      <c r="D191">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
+        <v>117</v>
+      </c>
+      <c r="B192" t="s">
+        <v>123</v>
+      </c>
+      <c r="C192">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D192">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
+        <v>117</v>
+      </c>
+      <c r="B193" t="s">
+        <v>118</v>
+      </c>
+      <c r="C193">
+        <v>0.13702</v>
+      </c>
+      <c r="D193">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
+        <v>115</v>
+      </c>
+      <c r="B194" t="s">
+        <v>124</v>
+      </c>
+      <c r="C194">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D194">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
+        <v>125</v>
+      </c>
+      <c r="B195" t="s">
+        <v>167</v>
+      </c>
+      <c r="C195">
+        <v>4.5599999999999998E-3</v>
+      </c>
+      <c r="D195">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
+        <v>125</v>
+      </c>
+      <c r="B196" t="s">
+        <v>115</v>
+      </c>
+      <c r="C196">
+        <v>1.7399999999999999E-2</v>
+      </c>
+      <c r="D196">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A197" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C197" s="1">
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="D197" s="1">
+        <v>11210</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>100</v>
+      </c>
+      <c r="B198" t="s">
+        <v>103</v>
+      </c>
+      <c r="C198">
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="D198">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>100</v>
+      </c>
+      <c r="B199" t="s">
+        <v>106</v>
+      </c>
+      <c r="C199">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D199">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A200" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C200" s="1">
+        <v>2.886E-2</v>
+      </c>
+      <c r="D200" s="1">
+        <v>8880</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>34</v>
+      </c>
+      <c r="B201" t="s">
+        <v>37</v>
+      </c>
+      <c r="C201">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D201">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
+        <v>102</v>
+      </c>
+      <c r="B202" t="s">
+        <v>95</v>
+      </c>
+      <c r="C202">
+        <v>2.886E-2</v>
+      </c>
+      <c r="D202">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
+        <v>102</v>
+      </c>
+      <c r="B203" t="s">
+        <v>96</v>
+      </c>
+      <c r="C203">
+        <v>2.886E-2</v>
+      </c>
+      <c r="D203">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
+        <v>49</v>
+      </c>
+      <c r="B204" t="s">
+        <v>56</v>
+      </c>
+      <c r="C204">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D204">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
+        <v>65</v>
+      </c>
+      <c r="B205" t="s">
+        <v>66</v>
+      </c>
+      <c r="C205">
+        <v>1.491E-2</v>
+      </c>
+      <c r="D205">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A206" t="s">
+        <v>65</v>
+      </c>
+      <c r="B206" t="s">
+        <v>58</v>
+      </c>
+      <c r="C206">
+        <v>7.9049999999999995E-2</v>
+      </c>
+      <c r="D206">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
+        <v>67</v>
+      </c>
+      <c r="B207" t="s">
+        <v>66</v>
+      </c>
+      <c r="C207">
+        <v>1.491E-2</v>
+      </c>
+      <c r="D207">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A208" t="s">
+        <v>67</v>
+      </c>
+      <c r="B208" t="s">
+        <v>58</v>
+      </c>
+      <c r="C208">
+        <v>7.9049999999999995E-2</v>
+      </c>
+      <c r="D208">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
+        <v>68</v>
+      </c>
+      <c r="B209" t="s">
+        <v>66</v>
+      </c>
+      <c r="C209">
+        <v>1.34E-2</v>
+      </c>
+      <c r="D209">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A210" t="s">
+        <v>68</v>
+      </c>
+      <c r="B210" t="s">
+        <v>64</v>
+      </c>
+      <c r="C210">
+        <v>1.025E-2</v>
+      </c>
+      <c r="D210">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A211" t="s">
+        <v>62</v>
+      </c>
+      <c r="B211" t="s">
+        <v>63</v>
+      </c>
+      <c r="C211">
+        <v>1.244E-2</v>
+      </c>
+      <c r="D211">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A212" t="s">
+        <v>62</v>
+      </c>
+      <c r="B212" t="s">
+        <v>55</v>
+      </c>
+      <c r="C212">
+        <v>9.7900000000000001E-3</v>
+      </c>
+      <c r="D212">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A213" t="s">
+        <v>59</v>
+      </c>
+      <c r="B213" t="s">
+        <v>62</v>
+      </c>
+      <c r="C213">
+        <v>1.3860000000000001E-2</v>
+      </c>
+      <c r="D213">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A214" t="s">
+        <v>64</v>
+      </c>
+      <c r="B214" t="s">
+        <v>63</v>
+      </c>
+      <c r="C214">
+        <v>1.189E-2</v>
+      </c>
+      <c r="D214">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A215" t="s">
+        <v>172</v>
+      </c>
+      <c r="B215" t="s">
+        <v>157</v>
+      </c>
+      <c r="C215">
+        <v>1.0359999999999999E-2</v>
+      </c>
+      <c r="D215">
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A216" t="s">
+        <v>172</v>
+      </c>
+      <c r="B216" t="s">
+        <v>170</v>
+      </c>
+      <c r="C216">
+        <v>2.3800000000000002E-3</v>
+      </c>
+      <c r="D216">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A217" t="s">
+        <v>135</v>
+      </c>
+      <c r="B217" t="s">
+        <v>134</v>
+      </c>
+      <c r="C217">
+        <v>2.886E-2</v>
+      </c>
+      <c r="D217">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A218" t="s">
+        <v>135</v>
+      </c>
+      <c r="B218" t="s">
+        <v>136</v>
+      </c>
+      <c r="C218">
+        <v>2.9899999999999999E-2</v>
+      </c>
+      <c r="D218">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A219" t="s">
+        <v>135</v>
+      </c>
+      <c r="B219" t="s">
+        <v>137</v>
+      </c>
+      <c r="C219">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D219">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A220" t="s">
+        <v>57</v>
+      </c>
+      <c r="B220" t="s">
+        <v>18</v>
+      </c>
+      <c r="C220">
+        <v>2.64E-2</v>
+      </c>
+      <c r="D220">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A221" t="s">
+        <v>57</v>
+      </c>
+      <c r="B221" t="s">
+        <v>20</v>
+      </c>
+      <c r="C221">
+        <v>1.187E-2</v>
+      </c>
+      <c r="D221">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A222" t="s">
+        <v>57</v>
+      </c>
+      <c r="B222" t="s">
+        <v>11</v>
+      </c>
+      <c r="C222">
+        <v>1.15E-3</v>
+      </c>
+      <c r="D222">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A223" t="s">
+        <v>126</v>
+      </c>
+      <c r="B223" t="s">
+        <v>125</v>
+      </c>
+      <c r="C223">
+        <v>3.46E-3</v>
+      </c>
+      <c r="D223">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A224" t="s">
+        <v>126</v>
+      </c>
+      <c r="B224" t="s">
+        <v>127</v>
+      </c>
+      <c r="C224">
+        <v>1.7399999999999999E-2</v>
+      </c>
+      <c r="D224">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A225" t="s">
+        <v>89</v>
+      </c>
+      <c r="B225" t="s">
+        <v>107</v>
+      </c>
+      <c r="C225">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D225">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A226" t="s">
+        <v>89</v>
+      </c>
+      <c r="B226" t="s">
+        <v>118</v>
+      </c>
+      <c r="C226">
+        <v>9.2679999999999998E-2</v>
+      </c>
+      <c r="D226">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A227" t="s">
+        <v>97</v>
+      </c>
+      <c r="B227" t="s">
+        <v>126</v>
+      </c>
+      <c r="C227">
+        <v>1.035E-2</v>
+      </c>
+      <c r="D227">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A228" t="s">
+        <v>97</v>
+      </c>
+      <c r="B228" t="s">
+        <v>89</v>
+      </c>
+      <c r="C228">
+        <v>1.7399999999999999E-2</v>
+      </c>
+      <c r="D228">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A229" t="s">
+        <v>97</v>
+      </c>
+      <c r="B229" t="s">
+        <v>121</v>
+      </c>
+      <c r="C229">
+        <v>5.7189999999999998E-2</v>
+      </c>
+      <c r="D229">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A230" t="s">
+        <v>97</v>
+      </c>
+      <c r="B230" t="s">
+        <v>108</v>
+      </c>
+      <c r="C230">
+        <v>1.0989011E-2</v>
+      </c>
+      <c r="D230">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A231" t="s">
+        <v>121</v>
+      </c>
+      <c r="B231" t="s">
+        <v>118</v>
+      </c>
+      <c r="C231">
+        <v>1.7399999999999999E-2</v>
+      </c>
+      <c r="D231">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A232" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C232" s="1">
+        <v>1.2290000000000001E-2</v>
+      </c>
+      <c r="D232" s="1">
+        <v>26670</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A233" t="s">
+        <v>108</v>
+      </c>
+      <c r="B233" t="s">
+        <v>90</v>
+      </c>
+      <c r="C233">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="D233">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A234" t="s">
+        <v>13</v>
+      </c>
+      <c r="B234" t="s">
+        <v>34</v>
+      </c>
+      <c r="C234">
+        <v>9.2999999999999992E-3</v>
+      </c>
+      <c r="D234">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A235" t="s">
+        <v>6</v>
+      </c>
+      <c r="B235" t="s">
+        <v>58</v>
+      </c>
+      <c r="C235">
+        <v>2.3380000000000001E-2</v>
+      </c>
+      <c r="D235">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A236" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C236" s="1">
+        <v>1.149E-2</v>
+      </c>
+      <c r="D236" s="1">
+        <v>11210</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A237" t="s">
+        <v>147</v>
+      </c>
+      <c r="B237" t="s">
+        <v>173</v>
+      </c>
+      <c r="C237">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D237">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A238" t="s">
+        <v>147</v>
+      </c>
+      <c r="B238" t="s">
+        <v>174</v>
+      </c>
+      <c r="C238">
+        <v>1.65E-3</v>
+      </c>
+      <c r="D238">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A239" t="s">
         <v>73</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B239" t="s">
         <v>128</v>
       </c>
-      <c r="C191">
+      <c r="C239">
         <v>2.886E-2</v>
       </c>
-      <c r="D191">
+      <c r="D239">
         <v>888</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D176">
-    <sortCondition ref="A2:A176"/>
-    <sortCondition ref="B2:B176"/>
+  <autoFilter ref="A1:D239"/>
+  <sortState ref="A2:D239">
+    <sortCondition ref="A2:A239"/>
+    <sortCondition ref="B2:B239"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
